--- a/untranslated/downloads/data-excel/7.2.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.2.1.1.xlsx
@@ -675,9 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -686,7 +688,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:17" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -697,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -720,12 +722,12 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -771,8 +773,14 @@
       <c r="O4" s="18">
         <v>2018</v>
       </c>
+      <c r="P4" s="18">
+        <v>2019</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="41.25" customHeight="1">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
@@ -818,8 +826,12 @@
       <c r="O5" s="13">
         <v>33.9</v>
       </c>
+      <c r="P5" s="14">
+        <v>35.67</v>
+      </c>
+      <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="28.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="28.5" customHeight="1" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
@@ -865,8 +877,14 @@
       <c r="O6" s="15">
         <v>14318.3</v>
       </c>
+      <c r="P6" s="15">
+        <v>13859.3</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>13979.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/untranslated/downloads/data-excel/7.2.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.2.1.1.xlsx
@@ -53,13 +53,13 @@
     <t>(in per cent)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.2.1 Энергия керектөөлөрүнүн жалпы көлөмүндөгү энергиянын жаңыланган булактарынын  үлүшү</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.2.1 Доля возобновляемых источников энергии в общем объеме энергопотребления</t>
-  </si>
-  <si>
-    <t>7.2.1 Renewable energy share in the total energy consumption</t>
+    <t xml:space="preserve"> 7.2.1.1 Энергия керектөөлөрүнүн жалпы көлөмүндөгү энергиянын жаңыланган булактарынын  үлүшү</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.2.1.1 Доля возобновляемых источников энергии в общем объеме энергопотребления</t>
+  </si>
+  <si>
+    <t>7.2.1.1 Renewable energy share in the total energy consumption</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -829,7 +829,9 @@
       <c r="P5" s="14">
         <v>35.67</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="14">
+        <v>36.700000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="28.5" customHeight="1" thickBot="1">
       <c r="A6" s="22" t="s">
@@ -878,10 +880,10 @@
         <v>14318.3</v>
       </c>
       <c r="P6" s="15">
-        <v>13859.3</v>
+        <v>13859.2</v>
       </c>
       <c r="Q6" s="15">
-        <v>13979.1</v>
+        <v>13979.2</v>
       </c>
     </row>
     <row r="7" spans="1:17">

--- a/untranslated/downloads/data-excel/7.2.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.2.1.1.xlsx
@@ -675,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="R4" sqref="R4:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,7 +688,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:18" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -699,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -722,12 +722,12 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -779,8 +779,11 @@
       <c r="Q4" s="18">
         <v>2020</v>
       </c>
+      <c r="R4" s="18">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="41.25" customHeight="1">
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
@@ -832,8 +835,11 @@
       <c r="Q5" s="14">
         <v>36.700000000000003</v>
       </c>
+      <c r="R5" s="13">
+        <v>31.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="28.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:18" ht="28.5" customHeight="1" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
@@ -885,8 +891,11 @@
       <c r="Q6" s="15">
         <v>13979.2</v>
       </c>
+      <c r="R6" s="15">
+        <v>12957.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/untranslated/downloads/data-excel/7.2.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.2.1.1.xlsx
@@ -675,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R6"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,7 +688,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -699,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -722,12 +722,12 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -782,8 +782,11 @@
       <c r="R4" s="18">
         <v>2021</v>
       </c>
+      <c r="S4" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="41.25" customHeight="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
@@ -838,8 +841,11 @@
       <c r="R5" s="13">
         <v>31.8</v>
       </c>
+      <c r="S5" s="13">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="28.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
@@ -894,8 +900,11 @@
       <c r="R6" s="15">
         <v>12957.1</v>
       </c>
+      <c r="S6" s="15">
+        <v>11928.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/untranslated/downloads/data-excel/7.2.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.2.1.1.xlsx
@@ -50,9 +50,6 @@
     <t>Гидроэлектростанциялардын электр энергия өндүрүшү, млн. кВт.с.</t>
   </si>
   <si>
-    <t>(in per cent)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7.2.1.1 Энергия керектөөлөрүнүн жалпы көлөмүндөгү энергиянын жаңыланган булактарынын  үлүшү</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>7.2.1.1 Renewable energy share in the total energy consumption</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -675,31 +675,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="20" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:20" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -707,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -722,12 +719,12 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -785,8 +782,11 @@
       <c r="S4" s="18">
         <v>2022</v>
       </c>
+      <c r="T4" s="18">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="41.25" customHeight="1">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
@@ -842,10 +842,13 @@
         <v>31.8</v>
       </c>
       <c r="S5" s="13">
-        <v>30</v>
+        <v>29.9</v>
+      </c>
+      <c r="T5" s="13">
+        <v>29.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
@@ -903,8 +906,11 @@
       <c r="S6" s="15">
         <v>11928.6</v>
       </c>
+      <c r="T6" s="15">
+        <v>12030.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
